--- a/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление без сохранения на несколько часов.xlsx
+++ b/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление без сохранения на несколько часов.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Отдел кадров\ЗАЯВЛЕНИЯ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Документация\ЗАЯВЛЕНИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11640"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="18972" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="на свой счет на несколько часов" sheetId="1" r:id="rId1"/>
@@ -545,20 +545,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
@@ -572,7 +572,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="D2" s="4" t="s">
@@ -588,7 +588,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>9</v>
       </c>
@@ -606,7 +606,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="D4" s="4"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -618,7 +618,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
         <v>0</v>
       </c>
@@ -632,7 +632,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
       <c r="D6" s="5"/>
       <c r="E6" s="7"/>
@@ -645,7 +645,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D7" s="6" t="s">
         <v>1</v>
       </c>
@@ -659,7 +659,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -670,7 +670,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -681,7 +681,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>2</v>
       </c>
@@ -698,7 +698,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>10</v>
       </c>
@@ -728,7 +728,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>14</v>
       </c>
@@ -745,7 +745,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -755,7 +755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>8</v>
       </c>
@@ -765,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>13</v>
       </c>
@@ -773,13 +773,13 @@
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
     </row>
-    <row r="26" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
     </row>
-    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>15</v>
       </c>
@@ -787,7 +787,7 @@
       <c r="C27" s="25"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -795,7 +795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
@@ -803,7 +803,7 @@
       <c r="C29" s="25"/>
       <c r="D29" s="15"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -811,7 +811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
         <v>12</v>
       </c>
@@ -819,7 +819,7 @@
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
     </row>
-    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>

--- a/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление без сохранения на несколько часов.xlsx
+++ b/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление без сохранения на несколько часов.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Документация\ЗАЯВЛЕНИЯ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Отдел кадров\ЗАЯВЛЕНИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="18972" windowHeight="11640"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="на свой счет на несколько часов" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>Согласовано:</t>
   </si>
   <si>
-    <t xml:space="preserve">     Прошу предоставить мне  свободное от работы время без сохранения заработной платы в связи со сложившимися семейными обстоятельствами __________ 2019 с _____ ч. по _____ ч., установив __________ 2019 рабочее время с _____ ч. по _____ ч.</t>
-  </si>
-  <si>
     <t>Заместитель директора</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Начальник производства</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Прошу предоставить мне  свободное от работы время без сохранения заработной платы в связи со сложившимися семейными обстоятельствами __________  с _____ ч. по _____ч., установив __________  рабочее время с _____ ч. по _____ ч.</t>
   </si>
 </sst>
 </file>
@@ -545,20 +545,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
@@ -572,7 +572,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="D2" s="4" t="s">
@@ -588,7 +588,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>9</v>
       </c>
@@ -606,7 +606,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D4" s="4"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -618,7 +618,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D5" s="6" t="s">
         <v>0</v>
       </c>
@@ -632,7 +632,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
       <c r="D6" s="5"/>
       <c r="E6" s="7"/>
@@ -645,7 +645,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D7" s="6" t="s">
         <v>1</v>
       </c>
@@ -659,7 +659,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -670,7 +670,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -681,7 +681,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>2</v>
       </c>
@@ -698,7 +698,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>10</v>
       </c>
@@ -728,9 +728,9 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -745,7 +745,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -755,7 +755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>8</v>
       </c>
@@ -765,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>13</v>
       </c>
@@ -773,45 +773,45 @@
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
     </row>
-    <row r="26" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
     </row>
-    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
-        <v>17</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="15"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>12</v>
       </c>
@@ -819,14 +819,14 @@
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
     </row>
-    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9pcDy1GqNl0lPvR9zjYMQzgbW5qIgaJsDI3cEBvLBFpQIVGP09HqruI1Hv6P69kmOvYGktchoQIYnZ6p0YY6qw==" saltValue="zjVBzIQWfVec8ThDh6ax9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A3:B3"/>

--- a/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление без сохранения на несколько часов.xlsx
+++ b/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление без сохранения на несколько часов.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Отдел кадров\ЗАЯВЛЕНИЯ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Документация\ЗАЯВЛЕНИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DE1832-5DBD-4F78-B97C-7FF64784EC72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="на свой счет на несколько часов" sheetId="1" r:id="rId1"/>
@@ -63,25 +64,25 @@
     <t>Начальник структурного подразделения__________________________________</t>
   </si>
   <si>
-    <t>Согласовано:</t>
-  </si>
-  <si>
     <t>Заместитель директора</t>
   </si>
   <si>
-    <t>______________________________________</t>
-  </si>
-  <si>
     <t>Начальник производства</t>
   </si>
   <si>
     <t xml:space="preserve">     Прошу предоставить мне  свободное от работы время без сохранения заработной платы в связи со сложившимися семейными обстоятельствами __________  с _____ ч. по _____ч., установив __________  рабочее время с _____ ч. по _____ ч.</t>
+  </si>
+  <si>
+    <t>__________________________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -190,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -238,6 +239,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -332,6 +336,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -367,6 +388,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -542,11 +580,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D13"/>
+      <selection activeCell="A24" sqref="A24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +768,7 @@
     </row>
     <row r="13" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -767,7 +805,7 @@
     </row>
     <row r="24" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -781,7 +819,7 @@
     </row>
     <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -792,12 +830,12 @@
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -808,16 +846,16 @@
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
